--- a/Other/Seventh Semester/Proyectos de Inversion/Examenes/Dos/Two.xlsx
+++ b/Other/Seventh Semester/Proyectos de Inversion/Examenes/Dos/Two.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lalor\Documents\Git\School\Other\Seventh Semester\Proyectos de Inversion\Examenes\Dos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FABBFA29-DADE-4770-9178-DD4A86C3C526}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F171CE5-356B-423C-9676-FEBB39E6956D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -101,9 +101,6 @@
     <t>(+/-)</t>
   </si>
   <si>
-    <t>2. Se calcula en numero de pagos de 840 pesos que se necesitan para que se pague la deuda en ese punto.</t>
-  </si>
-  <si>
     <t>3. Demostración</t>
   </si>
   <si>
@@ -137,9 +134,6 @@
     <t>Se aplica una búsqueda de objetivo de la siguiente forma:</t>
   </si>
   <si>
-    <t>Lo cuál concluye con un valor del 8.14% anual de taza de interés.</t>
-  </si>
-  <si>
     <t>TREMA</t>
   </si>
   <si>
@@ -258,6 +252,12 @@
   </si>
   <si>
     <t>El resultado más barato para el cliente es la opción a en la cual compra el auto de inicio, ya que si pasamos al presente el valor, es el caso en el que gasta menos.</t>
+  </si>
+  <si>
+    <t>Lo cuál concluye con un valor del 8.14% anual de tasa de interés.</t>
+  </si>
+  <si>
+    <t>2. Se calcula el numero de pagos de 840 pesos que se necesitan para que se pague la deuda en ese punto.</t>
   </si>
 </sst>
 </file>
@@ -267,8 +267,8 @@
   <numFmts count="4">
     <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
     <numFmt numFmtId="44" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0.00"/>
-    <numFmt numFmtId="177" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
+    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -510,11 +510,11 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
@@ -522,7 +522,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
@@ -536,11 +536,11 @@
     <xf numFmtId="8" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="40" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
@@ -1052,8 +1052,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O288"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G275" sqref="G275"/>
+    <sheetView tabSelected="1" topLeftCell="A325" workbookViewId="0">
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1187,7 +1187,7 @@
         <v>-182</v>
       </c>
       <c r="I20" s="7" t="s">
-        <v>21</v>
+        <v>73</v>
       </c>
       <c r="J20" s="7"/>
       <c r="K20" s="7"/>
@@ -1218,7 +1218,7 @@
       </c>
       <c r="K21" s="8"/>
       <c r="L21" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M21" s="7"/>
       <c r="N21" s="7"/>
@@ -1247,7 +1247,7 @@
         <v>11</v>
       </c>
       <c r="I23" s="11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J23" s="7"/>
       <c r="K23" s="7"/>
@@ -1274,13 +1274,13 @@
     <row r="25" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="I25" s="7"/>
       <c r="J25" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="K25" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="L25" s="19" t="s">
         <v>24</v>
-      </c>
-      <c r="K25" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="L25" s="19" t="s">
-        <v>25</v>
       </c>
       <c r="M25" s="7"/>
       <c r="N25" s="7"/>
@@ -1852,7 +1852,7 @@
     </row>
     <row r="70" spans="10:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="J70" s="26" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K70" s="27">
         <f>K69+K26</f>
@@ -1863,7 +1863,7 @@
         <v>-125.31750485105658</v>
       </c>
       <c r="M70" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="91" spans="2:9" x14ac:dyDescent="0.3">
@@ -1891,7 +1891,7 @@
         <v>8</v>
       </c>
       <c r="I92" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="93" spans="2:9" x14ac:dyDescent="0.3">
@@ -1909,7 +1909,7 @@
         <v>28000.000636892342</v>
       </c>
       <c r="I93" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="94" spans="2:9" x14ac:dyDescent="0.3">
@@ -1927,7 +1927,7 @@
         <v>6.3689234229968861E-4</v>
       </c>
       <c r="I94" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="95" spans="2:9" x14ac:dyDescent="0.3">
@@ -1938,7 +1938,7 @@
         <v>1000</v>
       </c>
       <c r="I95" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="96" spans="2:9" x14ac:dyDescent="0.3">
@@ -2029,7 +2029,7 @@
         <v>3000</v>
       </c>
       <c r="I106" t="s">
-        <v>33</v>
+        <v>72</v>
       </c>
     </row>
     <row r="107" spans="2:9" x14ac:dyDescent="0.3">
@@ -2242,7 +2242,7 @@
     </row>
     <row r="156" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C156" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D156" s="1">
         <v>0.08</v>
@@ -2250,7 +2250,7 @@
     </row>
     <row r="157" spans="2:12" x14ac:dyDescent="0.3">
       <c r="H157" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="K157" s="34">
         <f>2.3*500</f>
@@ -2259,7 +2259,7 @@
     </row>
     <row r="158" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B158" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F158">
         <f>12*200</f>
@@ -2268,27 +2268,27 @@
     </row>
     <row r="159" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B159" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H159" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="160" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C160" t="s">
+        <v>37</v>
+      </c>
+      <c r="D160" t="s">
+        <v>37</v>
+      </c>
+      <c r="J160" t="s">
+        <v>38</v>
+      </c>
+      <c r="K160" t="s">
+        <v>38</v>
+      </c>
+      <c r="L160" t="s">
         <v>39</v>
-      </c>
-      <c r="D160" t="s">
-        <v>39</v>
-      </c>
-      <c r="J160" t="s">
-        <v>40</v>
-      </c>
-      <c r="K160" t="s">
-        <v>40</v>
-      </c>
-      <c r="L160" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="161" spans="2:13" x14ac:dyDescent="0.3">
@@ -2296,31 +2296,31 @@
         <v>4</v>
       </c>
       <c r="C161" t="s">
+        <v>40</v>
+      </c>
+      <c r="D161" t="s">
+        <v>41</v>
+      </c>
+      <c r="E161" t="s">
         <v>42</v>
-      </c>
-      <c r="D161" t="s">
-        <v>43</v>
-      </c>
-      <c r="E161" t="s">
-        <v>44</v>
       </c>
       <c r="H161" t="s">
         <v>4</v>
       </c>
       <c r="I161" t="s">
+        <v>43</v>
+      </c>
+      <c r="J161" t="s">
+        <v>44</v>
+      </c>
+      <c r="K161" t="s">
+        <v>41</v>
+      </c>
+      <c r="L161" t="s">
         <v>45</v>
       </c>
-      <c r="J161" t="s">
+      <c r="M161" t="s">
         <v>46</v>
-      </c>
-      <c r="K161" t="s">
-        <v>43</v>
-      </c>
-      <c r="L161" t="s">
-        <v>47</v>
-      </c>
-      <c r="M161" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="162" spans="2:13" x14ac:dyDescent="0.3">
@@ -3410,7 +3410,7 @@
     <row r="193" spans="2:14" x14ac:dyDescent="0.3">
       <c r="C193" s="36"/>
       <c r="E193" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F193" s="36">
         <f>NPV(D156,E163:E192)</f>
@@ -3418,7 +3418,7 @@
       </c>
       <c r="I193" s="36"/>
       <c r="M193" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="N193" s="36">
         <f>NPV(D156,M163:M192)</f>
@@ -3428,7 +3428,7 @@
     <row r="194" spans="2:14" x14ac:dyDescent="0.3">
       <c r="C194" s="36"/>
       <c r="E194" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F194" s="36">
         <f>F193+E162</f>
@@ -3436,7 +3436,7 @@
       </c>
       <c r="I194" s="36"/>
       <c r="M194" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N194" s="36">
         <f>N193+I162</f>
@@ -3448,59 +3448,59 @@
     </row>
     <row r="197" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B197" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="198" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B198" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="199" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B199" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="200" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B200" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="201" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B201" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="202" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B202" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="203" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B203" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="205" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B205" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="243" spans="2:14" x14ac:dyDescent="0.3">
       <c r="D243" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E243" s="1">
         <v>0.12</v>
       </c>
       <c r="G243" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="H243">
         <v>12</v>
       </c>
       <c r="K243" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="L243" s="2">
         <f>E243/H243</f>
@@ -3509,62 +3509,62 @@
     </row>
     <row r="244" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B244" t="s">
+        <v>59</v>
+      </c>
+      <c r="C244" t="s">
+        <v>60</v>
+      </c>
+      <c r="F244" t="s">
         <v>61</v>
       </c>
-      <c r="C244" t="s">
+      <c r="G244" t="s">
         <v>62</v>
       </c>
-      <c r="F244" t="s">
+      <c r="I244" t="s">
         <v>63</v>
       </c>
-      <c r="G244" t="s">
+      <c r="J244" t="s">
         <v>64</v>
-      </c>
-      <c r="I244" t="s">
-        <v>65</v>
-      </c>
-      <c r="J244" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="245" spans="2:14" x14ac:dyDescent="0.3">
       <c r="M245" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="N245" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="246" spans="2:14" x14ac:dyDescent="0.3">
       <c r="C246" t="s">
+        <v>67</v>
+      </c>
+      <c r="D246" t="s">
+        <v>37</v>
+      </c>
+      <c r="F246" t="s">
+        <v>67</v>
+      </c>
+      <c r="G246" t="s">
+        <v>37</v>
+      </c>
+      <c r="I246" t="s">
+        <v>67</v>
+      </c>
+      <c r="J246" t="s">
+        <v>68</v>
+      </c>
+      <c r="K246" t="s">
         <v>69</v>
       </c>
-      <c r="D246" t="s">
-        <v>39</v>
-      </c>
-      <c r="F246" t="s">
-        <v>69</v>
-      </c>
-      <c r="G246" t="s">
-        <v>39</v>
-      </c>
-      <c r="I246" t="s">
-        <v>69</v>
-      </c>
-      <c r="J246" t="s">
+      <c r="L246" t="s">
         <v>70</v>
       </c>
-      <c r="K246" t="s">
-        <v>71</v>
-      </c>
-      <c r="L246" t="s">
-        <v>72</v>
-      </c>
       <c r="M246" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="N246" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="247" spans="2:14" x14ac:dyDescent="0.3">
@@ -4936,7 +4936,7 @@
     </row>
     <row r="284" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B284" s="36" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C284" s="36"/>
       <c r="D284" s="36">
@@ -4965,7 +4965,7 @@
     </row>
     <row r="285" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B285" s="36" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C285" s="36"/>
       <c r="D285" s="36">
@@ -5009,7 +5009,7 @@
     </row>
     <row r="288" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B288" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>
